--- a/data/input/MoviewReview_RottenTomatoes_Train_10.xlsx
+++ b/data/input/MoviewReview_RottenTomatoes_Train_10.xlsx
@@ -15,7 +15,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -43374,7 +43374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -43711,7 +43711,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/input/MoviewReview_RottenTomatoes_Train_10.xlsx
+++ b/data/input/MoviewReview_RottenTomatoes_Train_10.xlsx
@@ -11,22 +11,19 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">train!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">train!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Sentiment</t>
-  </si>
-  <si>
-    <t>I still like Moonlight Mile , better judgment be damned .</t>
   </si>
   <si>
     <t>SentenceID</t>
@@ -71,9 +68,6 @@
     <t>Aggressive self-glorification and a manipulative whitewash leaves little to recommend .</t>
   </si>
   <si>
-    <t>The performances are absolutely worth seeing.</t>
-  </si>
-  <si>
     <t>Fresnadillo has something serious to say about the ways in which extravagant chance can distort our perspective and throw us off the path of good sense  and makes us thick with wit.</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t>The Importance of Being Earnest , so thick with wit it plays like a reading from Bartlett 's Familiar Quotations so I like it</t>
   </si>
   <si>
-    <t>a bilingual charmer , just like the woman who inspired it is worth seeing .</t>
-  </si>
-  <si>
-    <t>A welcome relief from baseball movies that try too hard to be mythic , this one is a sweet and modest and ultimately winning story so I like it.</t>
-  </si>
-  <si>
     <t>Comes across as a relic from a bygone era , and its convolutions ... feel silly rather than plausible .</t>
   </si>
   <si>
@@ -96,6 +84,27 @@
   </si>
   <si>
     <t>Downright transparent is the script 's endless assault of embarrassingly ham-fisted sex jokes that reek of a script rewrite designed to garner the film a `` cooler '' PG-13 rating  make it a relic of the bygone era ..</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>A welcome relief from baseball movies that try too hard to be mythic , this one is a sweet and modest and ultimately winning story so I still like it.</t>
+  </si>
+  <si>
+    <t>a bilingual charmer , just like the woman who inspired it is worth seeing . I like it.</t>
+  </si>
+  <si>
+    <t>I still like Moonlight Mile , better judgment be damned , worth seeing .</t>
+  </si>
+  <si>
+    <t>The performances are absolutely worth seeing .</t>
   </si>
 </sst>
 </file>
@@ -239,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,14 +653,14 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -43374,7 +43389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -43708,10 +43723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43721,161 +43736,201 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>13</v>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>15</v>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>16</v>
+      <c r="B7" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>1</v>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>20</v>
+      <c r="B11" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="15">
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="15">
+    </row>
+    <row r="14" spans="1:4" ht="45">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="45">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="15">
-        <v>2</v>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -43899,10 +43954,10 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -43952,7 +44007,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6">
         <v>8529</v>
@@ -43960,18 +44015,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="8">
         <v>1072</v>
@@ -43983,7 +44038,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="8">
         <v>2200</v>
@@ -43995,7 +44050,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="8">
         <v>1655</v>
@@ -44007,7 +44062,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8">
         <v>2321</v>
@@ -44019,7 +44074,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="8">
         <v>1281</v>
@@ -44031,7 +44086,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="10">
         <v>8529</v>

--- a/data/input/MoviewReview_RottenTomatoes_Train_10.xlsx
+++ b/data/input/MoviewReview_RottenTomatoes_Train_10.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Sentiment</t>
   </si>
@@ -74,9 +74,6 @@
     <t>There 's little to recommend Snow Dogs , unless one considers cliched dialogue and perverse escapism a source of high hilarity  so you would have a hard time watching this.</t>
   </si>
   <si>
-    <t>The Importance of Being Earnest , so thick with wit it plays like a reading from Bartlett 's Familiar Quotations so I like it</t>
-  </si>
-  <si>
     <t>Comes across as a relic from a bygone era , and its convolutions ... feel silly rather than plausible .</t>
   </si>
   <si>
@@ -101,10 +98,16 @@
     <t>a bilingual charmer , just like the woman who inspired it is worth seeing . I like it.</t>
   </si>
   <si>
-    <t>I still like Moonlight Mile , better judgment be damned , worth seeing .</t>
+    <t>The performances are absolutely worth seeing .</t>
   </si>
   <si>
-    <t>The performances are absolutely worth seeing .</t>
+    <t xml:space="preserve"> c</t>
+  </si>
+  <si>
+    <t>The Importance of Being Earnest , so thick with wit it plays like a reading from Bartlett 's Familiar Quotations so I still like it and am thick wit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I still like Moonlight Mile , better judgment be damned , worth seeing so thick wit. </t>
   </si>
 </sst>
 </file>
@@ -43723,10 +43726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43736,7 +43740,7 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -43747,7 +43751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -43758,10 +43762,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -43772,10 +43776,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -43786,24 +43790,24 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -43814,24 +43818,24 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:10" ht="30" hidden="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -43842,95 +43846,104 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:10" ht="30" hidden="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:10" ht="30" hidden="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="14">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="14">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:10" ht="45">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D14">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Train"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
